--- a/Data/EC/NIT-9007444791.xlsx
+++ b/Data/EC/NIT-9007444791.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92EBE8E-57BA-49C5-8FEF-71AE40A6C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{455D21AC-4669-4483-AEB7-EE45605EB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B0AE4B6-56E9-470D-B7B8-F847E311CE00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70239687-4BD4-43BF-8A2E-A88ADDEBF8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,166 +65,166 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73181142</t>
+  </si>
+  <si>
+    <t>HAISAWA OTERO GOMEZ</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>18003676</t>
+  </si>
+  <si>
+    <t>GERMAN ENRIQUE RODRIGUEZ ROJAS</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>1047410035</t>
   </si>
   <si>
     <t>JUAN MANUEL ALVAREZ FOLKES</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>73181142</t>
-  </si>
-  <si>
-    <t>HAISAWA OTERO GOMEZ</t>
-  </si>
-  <si>
-    <t>18003676</t>
-  </si>
-  <si>
-    <t>GERMAN ENRIQUE RODRIGUEZ ROJAS</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -638,7 +638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A4491B-CDC2-D986-668F-7820A6F87EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1F268F-C0F8-7DC7-8CF6-3DAD686B1FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA55CC95-96E6-455F-B508-2D1B359E9528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697D7BE9-47D9-49C5-95F3-027D7C947B9F}">
   <dimension ref="B2:J118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1187,10 +1187,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>27083</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1204,16 +1204,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1227,16 +1227,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1250,16 +1250,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1273,16 +1273,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1296,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1319,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1342,16 +1342,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1365,16 +1365,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1388,16 +1388,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>737717</v>
@@ -1411,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1434,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1457,16 +1457,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>737717</v>
@@ -1480,16 +1480,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>737717</v>
@@ -1503,16 +1503,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>737717</v>
@@ -1526,16 +1526,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1549,16 +1549,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>737717</v>
@@ -1572,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>737717</v>
@@ -1595,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>737717</v>
@@ -1618,16 +1618,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1641,16 +1641,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>737717</v>
@@ -1664,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1687,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>737717</v>
@@ -1710,16 +1710,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1733,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1756,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1779,16 +1779,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>737717</v>
@@ -1802,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1825,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>737717</v>
@@ -1848,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>737717</v>
@@ -1871,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>737717</v>
@@ -1894,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>737717</v>
@@ -1917,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>737717</v>
@@ -1940,16 +1940,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>737717</v>
@@ -1963,16 +1963,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>737717</v>
@@ -1986,16 +1986,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>737717</v>
@@ -2009,16 +2009,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
         <v>737717</v>
@@ -2032,16 +2032,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>737717</v>
@@ -2055,16 +2055,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>737717</v>
@@ -2078,16 +2078,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
         <v>737717</v>
@@ -2101,16 +2101,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
         <v>737717</v>
@@ -2124,16 +2124,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
         <v>737717</v>
@@ -2147,16 +2147,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
         <v>737717</v>
@@ -2170,16 +2170,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
         <v>737717</v>
@@ -2193,16 +2193,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
         <v>737717</v>
@@ -2216,16 +2216,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
         <v>737717</v>
@@ -2239,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
         <v>737717</v>
@@ -2262,16 +2262,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
         <v>737717</v>
@@ -2285,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27083</v>
       </c>
       <c r="G65" s="18">
         <v>737717</v>
@@ -2308,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2331,13 +2331,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2354,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2377,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2400,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2423,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2446,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2469,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2492,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2515,13 +2515,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2538,13 +2538,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2561,13 +2561,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2584,13 +2584,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2607,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2630,13 +2630,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2653,13 +2653,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2676,13 +2676,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2699,13 +2699,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2722,13 +2722,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2745,13 +2745,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2768,13 +2768,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2791,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2814,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2837,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2860,13 +2860,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2883,13 +2883,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2906,13 +2906,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2929,13 +2929,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2952,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -2975,13 +2975,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -2998,13 +2998,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3021,16 +3021,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>737717</v>
@@ -3044,16 +3044,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
         <v>737717</v>
@@ -3067,16 +3067,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G99" s="18">
         <v>737717</v>
@@ -3090,16 +3090,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G100" s="18">
         <v>737717</v>
@@ -3113,16 +3113,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
         <v>737717</v>
@@ -3136,16 +3136,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
         <v>737717</v>
@@ -3159,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>737717</v>
@@ -3182,16 +3182,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G104" s="18">
         <v>737717</v>
@@ -3205,16 +3205,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G105" s="18">
         <v>737717</v>
@@ -3228,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G106" s="18">
         <v>737717</v>
@@ -3251,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G107" s="18">
         <v>737717</v>
@@ -3274,16 +3274,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G108" s="18">
         <v>737717</v>
@@ -3297,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
         <v>737717</v>
@@ -3320,16 +3320,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G110" s="18">
         <v>737717</v>
@@ -3343,16 +3343,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
-        <v>27083</v>
+        <v>29509</v>
       </c>
       <c r="G111" s="18">
         <v>737717</v>
@@ -3366,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F112" s="24">
-        <v>27083</v>
+        <v>29509</v>
       </c>
       <c r="G112" s="24">
         <v>737717</v>

--- a/Data/EC/NIT-9007444791.xlsx
+++ b/Data/EC/NIT-9007444791.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455D21AC-4669-4483-AEB7-EE45605EB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{326C14FE-62CA-49DD-BF93-70DCE3AB6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70239687-4BD4-43BF-8A2E-A88ADDEBF8D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6918D807-198B-42E2-88E2-50FB6CCA6842}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,151 +80,151 @@
     <t>GERMAN ENRIQUE RODRIGUEZ ROJAS</t>
   </si>
   <si>
+    <t>1047410035</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL ALVAREZ FOLKES</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1047410035</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL ALVAREZ FOLKES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -323,7 +323,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -336,9 +338,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -538,23 +538,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,10 +582,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,7 +638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1F268F-C0F8-7DC7-8CF6-3DAD686B1FEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D08FC06-4AB2-8612-B4A4-79F7B0CD9976}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697D7BE9-47D9-49C5-95F3-027D7C947B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788415B6-27DC-4847-B870-0D89BC996D5A}">
   <dimension ref="B2:J118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1187,13 +1187,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>27083</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1204,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1236,10 +1236,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1250,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1279,13 +1279,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1296,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1325,13 +1325,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1342,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1371,13 +1371,13 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1388,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1417,13 +1417,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1434,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1463,13 +1463,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1480,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1509,13 +1509,13 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1526,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1555,13 +1555,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1572,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1601,13 +1601,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1618,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1647,13 +1647,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1664,19 +1664,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1693,13 +1693,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1710,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1739,13 +1739,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1756,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1785,13 +1785,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1802,19 +1802,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1831,13 +1831,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1848,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1877,13 +1877,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1894,19 +1894,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1923,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1940,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1969,13 +1969,13 @@
         <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1986,19 +1986,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2015,13 +2015,13 @@
         <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2032,19 +2032,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2061,13 +2061,13 @@
         <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2078,19 +2078,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2107,13 +2107,13 @@
         <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2124,19 +2124,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2153,13 +2153,13 @@
         <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2170,19 +2170,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2199,13 +2199,13 @@
         <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2216,19 +2216,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2245,13 +2245,13 @@
         <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2262,19 +2262,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2285,19 +2285,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F65" s="18">
-        <v>27083</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2308,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2331,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2354,19 +2354,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2377,19 +2377,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2400,19 +2400,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2423,19 +2423,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2446,19 +2446,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2469,19 +2469,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2492,19 +2492,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2515,19 +2515,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2538,19 +2538,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2561,19 +2561,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2584,19 +2584,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2607,19 +2607,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2630,19 +2630,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2653,19 +2653,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2676,19 +2676,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2699,19 +2699,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2722,19 +2722,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2745,19 +2745,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2768,19 +2768,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2791,19 +2791,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2814,19 +2814,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2837,19 +2837,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2860,19 +2860,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2883,19 +2883,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2906,19 +2906,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2929,19 +2929,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2952,19 +2952,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2975,19 +2975,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2998,19 +2998,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3021,19 +3021,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3044,19 +3044,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3067,19 +3067,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3090,19 +3090,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F100" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3113,19 +3113,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F101" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3136,19 +3136,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3159,19 +3159,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F103" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3182,19 +3182,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3205,19 +3205,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3228,19 +3228,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3251,19 +3251,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F107" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3274,19 +3274,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3297,19 +3297,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="F109" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3320,19 +3320,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="F110" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3343,19 +3343,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F111" s="18">
-        <v>29509</v>
+        <v>27083</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3366,19 +3366,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D112" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="F112" s="24">
-        <v>29509</v>
+        <v>27083</v>
       </c>
       <c r="G112" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>

--- a/Data/EC/NIT-9007444791.xlsx
+++ b/Data/EC/NIT-9007444791.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326C14FE-62CA-49DD-BF93-70DCE3AB6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C816AE6E-5885-474A-BCF5-E48BD5DDD4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6918D807-198B-42E2-88E2-50FB6CCA6842}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B83CB208-FB50-4BDF-86F1-BF21C10BC0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -323,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -338,7 +336,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,29 +532,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,19 +573,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D08FC06-4AB2-8612-B4A4-79F7B0CD9976}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629581A0-2049-658E-5073-405F6B59169B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788415B6-27DC-4847-B870-0D89BC996D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79604AF2-EE20-43A9-BE80-FD4D94FFAD3D}">
   <dimension ref="B2:J118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1012,49 +1018,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,7 +1068,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007444791</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2965401</v>
       </c>
@@ -1163,18 +1169,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29509</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>737717</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1186,18 +1192,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29509</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1209,18 +1215,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29509</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1232,18 +1238,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29509</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1255,18 +1261,18 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>29509</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1278,18 +1284,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>29509</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1301,18 +1307,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29509</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1324,18 +1330,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29509</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1347,18 +1353,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29509</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1370,18 +1376,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29509</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1393,18 +1399,18 @@
       <c r="D26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>29509</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1416,18 +1422,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>29509</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1439,18 +1445,18 @@
       <c r="D28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>29509</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1462,18 +1468,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>29509</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1485,18 +1491,18 @@
       <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>29509</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1508,18 +1514,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29509</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1531,18 +1537,18 @@
       <c r="D32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>29509</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1554,18 +1560,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>29509</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1577,18 +1583,18 @@
       <c r="D34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>29509</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1600,18 +1606,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>29509</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1623,18 +1629,18 @@
       <c r="D36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>29509</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1646,18 +1652,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>29509</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1669,18 +1675,18 @@
       <c r="D38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>29509</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1692,18 +1698,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>29509</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1715,18 +1721,18 @@
       <c r="D40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>29509</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1738,18 +1744,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>29509</v>
       </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1761,18 +1767,18 @@
       <c r="D42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>29509</v>
       </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1784,18 +1790,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>29509</v>
       </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1807,18 +1813,18 @@
       <c r="D44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>29509</v>
       </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1830,18 +1836,18 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>29509</v>
       </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1853,18 +1859,18 @@
       <c r="D46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>29509</v>
       </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1876,18 +1882,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>29509</v>
       </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1899,18 +1905,18 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>29509</v>
       </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1922,18 +1928,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1945,18 +1951,18 @@
       <c r="D50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1968,18 +1974,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1991,18 +1997,18 @@
       <c r="D52" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2014,18 +2020,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2037,18 +2043,18 @@
       <c r="D54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2060,18 +2066,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2083,18 +2089,18 @@
       <c r="D56" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2106,18 +2112,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2129,18 +2135,18 @@
       <c r="D58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2152,18 +2158,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2175,18 +2181,18 @@
       <c r="D60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2198,18 +2204,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2221,18 +2227,18 @@
       <c r="D62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2244,18 +2250,18 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2267,18 +2273,18 @@
       <c r="D64" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2290,18 +2296,18 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2313,18 +2319,18 @@
       <c r="D66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2336,18 +2342,18 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2359,18 +2365,18 @@
       <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2382,18 +2388,18 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2405,18 +2411,18 @@
       <c r="D70" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2428,18 +2434,18 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2451,18 +2457,18 @@
       <c r="D72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2474,18 +2480,18 @@
       <c r="D73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2497,18 +2503,18 @@
       <c r="D74" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2520,18 +2526,18 @@
       <c r="D75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2543,18 +2549,18 @@
       <c r="D76" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2566,18 +2572,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2589,18 +2595,18 @@
       <c r="D78" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2612,18 +2618,18 @@
       <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2635,18 +2641,18 @@
       <c r="D80" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2658,18 +2664,18 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2681,18 +2687,18 @@
       <c r="D82" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2704,18 +2710,18 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2727,18 +2733,18 @@
       <c r="D84" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2750,18 +2756,18 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2773,18 +2779,18 @@
       <c r="D86" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2796,18 +2802,18 @@
       <c r="D87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2819,18 +2825,18 @@
       <c r="D88" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2842,18 +2848,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2865,18 +2871,18 @@
       <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2888,18 +2894,18 @@
       <c r="D91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2911,18 +2917,18 @@
       <c r="D92" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2934,18 +2940,18 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2957,18 +2963,18 @@
       <c r="D94" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G94" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G94" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -2980,18 +2986,18 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3003,18 +3009,18 @@
       <c r="D96" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F96" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G96" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G96" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3026,18 +3032,18 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3049,18 +3055,18 @@
       <c r="D98" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G98" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G98" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3072,18 +3078,18 @@
       <c r="D99" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F99" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G99" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G99" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3095,18 +3101,18 @@
       <c r="D100" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3118,18 +3124,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F101" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G101" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3141,18 +3147,18 @@
       <c r="D102" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G102" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3164,18 +3170,18 @@
       <c r="D103" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3187,18 +3193,18 @@
       <c r="D104" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F104" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G104" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3210,18 +3216,18 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3233,18 +3239,18 @@
       <c r="D106" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G106" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3256,18 +3262,18 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3279,18 +3285,18 @@
       <c r="D108" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G108" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3302,18 +3308,18 @@
       <c r="D109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F109" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G109" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3325,18 +3331,18 @@
       <c r="D110" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G110" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3348,47 +3354,47 @@
       <c r="D111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>27083</v>
       </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="G111" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="22" t="s">
+      <c r="B112" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F112" s="24">
+      <c r="F112" s="26">
         <v>27083</v>
       </c>
-      <c r="G112" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="G112" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="32" t="s">
+      <c r="B117" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="32"/>
+      <c r="C117" s="34"/>
       <c r="H117" s="1" t="s">
         <v>72</v>
       </c>
@@ -3396,10 +3402,10 @@
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="32"/>
+      <c r="C118" s="34"/>
       <c r="H118" s="1" t="s">
         <v>73</v>
       </c>
